--- a/Hotel Room Prices.xlsx
+++ b/Hotel Room Prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Residence Inn Palo Alto Los Altos</t>
+          <t>Residence Inn Palo Alto Mountain View</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Studio</t>
+          <t>Queen Studio</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -539,16 +539,16 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c r="L2" t="n">
-        <v>249</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Suite</t>
+          <t>Studio</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c r="L3" t="n">
-        <v>259</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-05-21</t>
+          <t>2023-05-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2 Bedroom Suite</t>
+          <t>Suite</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -636,13 +636,477 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>489</v>
+        <v>161</v>
       </c>
       <c r="L4" t="n">
-        <v>499</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Courtyard Palo Alto Los Altos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>180</v>
+      </c>
+      <c r="L5" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Courtyard Palo Alto Los Altos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>189</v>
+      </c>
+      <c r="L6" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Courtyard Palo Alto Los Altos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Larger Guest room</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>189</v>
+      </c>
+      <c r="L7" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Courtyard Palo Alto Los Altos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>189</v>
+      </c>
+      <c r="L9" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Corner</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>208</v>
+      </c>
+      <c r="L10" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hotel Citrine Palo Alto</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>218</v>
+      </c>
+      <c r="L11" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hotel Citrine Palo Alto</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>218</v>
+      </c>
+      <c r="L12" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hotel Citrine Palo Alto</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>High Floor</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>241</v>
+      </c>
+      <c r="L13" t="n">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/Hotel Room Prices.xlsx
+++ b/Hotel Room Prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -539,35 +539,35 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L2" t="n">
-        <v>149</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Residence Inn Palo Alto Los Altos</t>
+          <t>Residence Inn Palo Alto Mountain View</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Studio</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
+          <t>King Studio</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -589,26 +589,26 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L3" t="n">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Residence Inn Palo Alto Los Altos</t>
+          <t>Residence Inn Palo Alto Mountain View</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Suite</t>
+          <t>Penthouse Suite</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="L4" t="n">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -689,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L5" t="n">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -741,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="L6" t="n">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="L7" t="n">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -810,16 +810,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Suite</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Larger Guest room</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -838,31 +838,29 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>175</v>
       </c>
       <c r="L8" t="n">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AC Hotel Palo Alto</t>
+          <t>Courtyard Palo Alto Los Altos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Guest room</t>
+          <t>Suite</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -873,10 +871,8 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -892,62 +888,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>189</v>
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AC Hotel Palo Alto</t>
+          <t>Courtyard Palo Alto Los Altos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Guest room</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Courtyard view</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Corner</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>208</v>
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="L10" t="n">
         <v>219</v>
@@ -956,12 +954,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hotel Citrine Palo Alto</t>
+          <t>AC Hotel Palo Alto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -999,21 +997,21 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="L11" t="n">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hotel Citrine Palo Alto</t>
+          <t>AC Hotel Palo Alto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1051,62 +1049,790 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="L12" t="n">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-05-26</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mountain view</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>185</v>
+      </c>
+      <c r="L13" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mountain view</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>185</v>
+      </c>
+      <c r="L14" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Corner</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>195</v>
+      </c>
+      <c r="L15" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Deluxe Guest room</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>200</v>
+      </c>
+      <c r="L16" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Hotel Citrine Palo Alto</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Guest room</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>205</v>
+      </c>
+      <c r="L17" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hotel Citrine Palo Alto</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>205</v>
+      </c>
+      <c r="L18" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hotel Citrine Palo Alto</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>High Floor</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>241</v>
-      </c>
-      <c r="L13" t="n">
-        <v>254</v>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>229</v>
+      </c>
+      <c r="L19" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Hotel Citrine Palo Alto</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>High Floor</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>229</v>
+      </c>
+      <c r="L20" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Aloft Room</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>125</v>
+      </c>
+      <c r="L21" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Breezy Guest Room</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>High Floor</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>145</v>
+      </c>
+      <c r="L22" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Aloft Room</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pool View</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>145</v>
+      </c>
+      <c r="L23" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Savvy Guest Room</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>155</v>
+      </c>
+      <c r="L24" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Aloft Room</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>155</v>
+      </c>
+      <c r="L25" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Breezy Guest Room</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pool View</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>High Floor</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>165</v>
+      </c>
+      <c r="L26" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Aloft Mountain View</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Junior Suite</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Corner</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>233</v>
+      </c>
+      <c r="L27" t="n">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Hotel Room Prices.xlsx
+++ b/Hotel Room Prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -540,19 +540,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>SOLD OUT</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SOLD OUT</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -606,7 +604,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -660,26 +658,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Residence Inn Palo Alto Los Altos</t>
+          <t>Courtyard Palo Alto Los Altos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Studio</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -700,27 +698,31 @@
       <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>293</v>
-      </c>
-      <c r="L5" t="n">
-        <v>299</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Residence Inn Palo Alto Los Altos</t>
+          <t>Courtyard Palo Alto Los Altos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Suite</t>
+          <t>Guest room</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -729,10 +731,12 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -748,38 +752,38 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>303</v>
+        <v>450</v>
       </c>
       <c r="L6" t="n">
-        <v>309</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Residence Inn Palo Alto Los Altos</t>
+          <t>Courtyard Palo Alto Los Altos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2 Bedroom Suite</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
+          <t>Larger Guest room</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -798,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>538</v>
+        <v>460</v>
       </c>
       <c r="L7" t="n">
-        <v>549</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -820,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Guest room</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Larger Guest room</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -850,21 +854,17 @@
       <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>SOLD OUT</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>SOLD OUT</t>
-        </is>
+      <c r="K8" t="n">
+        <v>460</v>
+      </c>
+      <c r="L8" t="n">
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -874,53 +874,49 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Guest room</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>SOLD OUT</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>SOLD OUT</t>
-        </is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -930,23 +926,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Larger Guest room</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Courtyard view</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -958,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -974,29 +970,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Courtyard Palo Alto Los Altos</t>
+          <t>AC Hotel Palo Alto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Larger Guest room</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1028,29 +1026,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Courtyard Palo Alto Los Altos</t>
+          <t>AC Hotel Palo Alto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Suite</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1082,52 +1082,278 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-06-05</t>
+          <t>2023-06-07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Courtyard Palo Alto Los Altos</t>
+          <t>AC Hotel Palo Alto</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Suite</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Mountain view</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Courtyard view</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>SOLD OUT</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Mountain view</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Guest room</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Corner</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Deluxe Guest room</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-06-07</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AC Hotel Palo Alto</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Deluxe Guest room</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mountain view</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>SOLD OUT</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>SOLD OUT</t>
         </is>

--- a/Hotel Room Prices.xlsx
+++ b/Hotel Room Prices.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MardonBa/Documents/GitHub/Hotel-Web-Scraping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC6601D-1526-7246-934A-36E8CD6F6555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26860" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -52,7 +58,7 @@
     <t>Normal Rate</t>
   </si>
   <si>
-    <t>2023-06-12</t>
+    <t>2023-06-09</t>
   </si>
   <si>
     <t>Residence Inn Palo Alto Mountain View</t>
@@ -61,6 +67,18 @@
     <t>Residence Inn Palo Alto Los Altos</t>
   </si>
   <si>
+    <t>Courtyard Palo Alto Los Altos</t>
+  </si>
+  <si>
+    <t>AC Hotel Palo Alto</t>
+  </si>
+  <si>
+    <t>Hotel Citrine Palo Alto</t>
+  </si>
+  <si>
+    <t>Aloft Mountain View</t>
+  </si>
+  <si>
     <t>Queen Studio</t>
   </si>
   <si>
@@ -79,7 +97,43 @@
     <t>2 Bedroom Suite</t>
   </si>
   <si>
+    <t>Guest room</t>
+  </si>
+  <si>
+    <t>Larger Guest room</t>
+  </si>
+  <si>
+    <t>Deluxe Guest room</t>
+  </si>
+  <si>
+    <t>Aloft Room</t>
+  </si>
+  <si>
+    <t>Breezy Guest Room</t>
+  </si>
+  <si>
+    <t>Savvy Guest Room</t>
+  </si>
+  <si>
+    <t>Junior Suite</t>
+  </si>
+  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Courtyard view</t>
+  </si>
+  <si>
+    <t>Mountain view</t>
+  </si>
+  <si>
+    <t>Pool View</t>
+  </si>
+  <si>
+    <t>Corner</t>
+  </si>
+  <si>
+    <t>High Floor</t>
   </si>
   <si>
     <t>SOLD OUT</t>
@@ -88,8 +142,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +206,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -196,7 +258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -230,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,14 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -492,10 +563,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -504,10 +575,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -516,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>332</v>
+        <v>142</v>
       </c>
       <c r="L2">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -530,22 +601,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -554,13 +625,13 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>347</v>
+        <v>156</v>
       </c>
       <c r="L3">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -568,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -580,10 +651,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -592,13 +663,13 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="L4">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -606,10 +677,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -618,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -629,14 +700,14 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5">
+        <v>142</v>
+      </c>
+      <c r="L5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -644,10 +715,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -656,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -667,14 +738,14 @@
       <c r="J6">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6">
+        <v>151</v>
+      </c>
+      <c r="L6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -682,10 +753,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -694,10 +765,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -706,10 +777,1074 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>151</v>
+      </c>
+      <c r="L8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>161</v>
+      </c>
+      <c r="L9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>161</v>
+      </c>
+      <c r="L10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>170</v>
+      </c>
+      <c r="L11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>161</v>
+      </c>
+      <c r="L14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>161</v>
+      </c>
+      <c r="L15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>170</v>
+      </c>
+      <c r="L16">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>170</v>
+      </c>
+      <c r="L17">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>180</v>
+      </c>
+      <c r="L18">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>184</v>
+      </c>
+      <c r="L19">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>189</v>
+      </c>
+      <c r="L21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>189</v>
+      </c>
+      <c r="L22">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>213</v>
+      </c>
+      <c r="L23">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>213</v>
+      </c>
+      <c r="L24">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>284</v>
+      </c>
+      <c r="L26">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>111</v>
+      </c>
+      <c r="L29">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>130</v>
+      </c>
+      <c r="L30">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>130</v>
+      </c>
+      <c r="L31">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>140</v>
+      </c>
+      <c r="L32">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>140</v>
+      </c>
+      <c r="L33">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>149</v>
+      </c>
+      <c r="L34">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>216</v>
+      </c>
+      <c r="L35">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
